--- a/projects/CGE_Generator/data/Production_A.xlsx
+++ b/projects/CGE_Generator/data/Production_A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21945" windowHeight="8625" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21945" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Tree1" sheetId="1" r:id="rId1"/>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
